--- a/Input_Data/Inputs.xlsx
+++ b/Input_Data/Inputs.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{3DAC9DDD-8E9A-4917-BB50-36516637C83E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A4DEBA-6990-4B21-B880-3622F08B198A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="14145" windowHeight="9315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Valid Login" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,6 @@
     <sheet name="Verify Product Version" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:J8"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -394,7 +393,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -436,7 +435,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,8 +503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Input_Data/Inputs.xlsx
+++ b/Input_Data/Inputs.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A4DEBA-6990-4B21-B880-3622F08B198A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1745F7-529B-4F24-AF9E-0A93E1A3D2ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -394,7 +394,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,7 +435,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,7 +504,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Input_Data/Inputs.xlsx
+++ b/Input_Data/Inputs.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1745F7-529B-4F24-AF9E-0A93E1A3D2ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275B8344-8739-4635-8129-85098BC64143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Valid Login" sheetId="1" r:id="rId1"/>
@@ -393,14 +393,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" customWidth="1"/>
+    <col min="4" max="4" width="24.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -435,17 +435,17 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" customWidth="1"/>
-    <col min="3" max="3" width="44.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="44.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -456,7 +456,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -467,7 +467,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -478,7 +478,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -486,7 +486,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -503,17 +503,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -524,7 +524,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>

--- a/Input_Data/Inputs.xlsx
+++ b/Input_Data/Inputs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275B8344-8739-4635-8129-85098BC64143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CCB45DC-F367-4FA8-8FC7-AF23ADB5B10A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
   <si>
     <t>username</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>actiTIME 2020 Online</t>
+  </si>
+  <si>
+    <t>admin123</t>
   </si>
 </sst>
 </file>
@@ -394,7 +397,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -416,7 +419,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -435,7 +438,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Input_Data/Inputs.xlsx
+++ b/Input_Data/Inputs.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CCB45DC-F367-4FA8-8FC7-AF23ADB5B10A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E619F4-3E12-4AE8-B5CC-FC6AF5B7C4F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -397,7 +397,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -438,7 +438,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A7"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
